--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D903D6B-732E-44FB-A097-8F0B822ED111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFAEF30-34BC-4E46-949C-41D7136728FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20805" yWindow="3645" windowWidth="29055" windowHeight="19125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26310" yWindow="1860" windowWidth="27525" windowHeight="19125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -33,69 +33,98 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Sailors' Snug Harbor, Building A</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Building B</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Building C</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Building D</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Building E</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Chapel</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor - Gatehouse</t>
-  </si>
-  <si>
-    <t>Sailors' Snug Harbor, Iron Fence</t>
-  </si>
-  <si>
-    <t>64331751a90bce6b6c83bae9</t>
-  </si>
-  <si>
-    <t>64341172a90bce6b6c83bb0f</t>
-  </si>
-  <si>
-    <t>6433182ca90bce6b6c83baea</t>
-  </si>
-  <si>
-    <t>643412f0a90bce6b6c83bb10</t>
-  </si>
-  <si>
-    <t>6477a5c8426b0f007933dcd7</t>
-  </si>
-  <si>
-    <t>6477ad3e426b0f007933dce5</t>
-  </si>
-  <si>
-    <t>64341ec2a90bce6b6c83bb15</t>
-  </si>
-  <si>
-    <t>648fd5a913f51e5a4696f245</t>
+    <t>56b6d261cd1588295803c3a0</t>
+  </si>
+  <si>
+    <t>Canadian Burr Oak</t>
+  </si>
+  <si>
+    <t>56b2d697cd158828b067f32e</t>
+  </si>
+  <si>
+    <t>City Hall Park Fountain</t>
+  </si>
+  <si>
+    <t>56b7a32ecd15882aa09d717d</t>
+  </si>
+  <si>
+    <t>Civil Engineers Plaque</t>
+  </si>
+  <si>
+    <t>56b5ac0dcd158817d04f8b82</t>
+  </si>
+  <si>
+    <t>Crime Victims Memorial</t>
+  </si>
+  <si>
+    <t>56b2d697cd158828b067f32f</t>
+  </si>
+  <si>
+    <t>Debs Myers</t>
+  </si>
+  <si>
+    <t>56b2d697cd158828b067f330</t>
+  </si>
+  <si>
+    <t>Horace Greeley</t>
+  </si>
+  <si>
+    <t>56b6dd63cd15881694403c0d</t>
+  </si>
+  <si>
+    <t>Jane Addams Memorial</t>
+  </si>
+  <si>
+    <t>56b2d697cd158828b067f331</t>
+  </si>
+  <si>
+    <t>Joseph Pulitzer</t>
+  </si>
+  <si>
+    <t>56b79b58cd15882c90a3af05</t>
+  </si>
+  <si>
+    <t>Liberty Flagstaff</t>
+  </si>
+  <si>
+    <t>56b2d697cd158828b067f332</t>
+  </si>
+  <si>
+    <t>Marie Sklodowska Curie</t>
+  </si>
+  <si>
+    <t>56b570e2cd15880120dc35c3</t>
+  </si>
+  <si>
+    <t>Nathan Hale</t>
+  </si>
+  <si>
+    <t>56b560bdcd158825d839fb9a</t>
+  </si>
+  <si>
+    <t>Provost Prison</t>
+  </si>
+  <si>
+    <t>644a1410e7abb0665474a28c</t>
+  </si>
+  <si>
+    <t>Subway Tablet (Underground Railway)</t>
+  </si>
+  <si>
+    <t>56b68230cd15882c40f88b13</t>
+  </si>
+  <si>
+    <t>Duane Park Plaques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,17 +137,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -135,19 +159,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,67 +468,115 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFAEF30-34BC-4E46-949C-41D7136728FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AA89A-D64F-42EA-9BA6-BA0D8E74EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26310" yWindow="1860" windowWidth="27525" windowHeight="19125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20820" yWindow="2250" windowWidth="38805" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -33,95 +33,161 @@
     <t>Title</t>
   </si>
   <si>
-    <t>56b6d261cd1588295803c3a0</t>
-  </si>
-  <si>
-    <t>Canadian Burr Oak</t>
-  </si>
-  <si>
-    <t>56b2d697cd158828b067f32e</t>
-  </si>
-  <si>
-    <t>City Hall Park Fountain</t>
-  </si>
-  <si>
-    <t>56b7a32ecd15882aa09d717d</t>
-  </si>
-  <si>
-    <t>Civil Engineers Plaque</t>
-  </si>
-  <si>
-    <t>56b5ac0dcd158817d04f8b82</t>
-  </si>
-  <si>
-    <t>Crime Victims Memorial</t>
-  </si>
-  <si>
-    <t>56b2d697cd158828b067f32f</t>
-  </si>
-  <si>
-    <t>Debs Myers</t>
-  </si>
-  <si>
-    <t>56b2d697cd158828b067f330</t>
-  </si>
-  <si>
-    <t>Horace Greeley</t>
-  </si>
-  <si>
-    <t>56b6dd63cd15881694403c0d</t>
-  </si>
-  <si>
-    <t>Jane Addams Memorial</t>
-  </si>
-  <si>
-    <t>56b2d697cd158828b067f331</t>
-  </si>
-  <si>
-    <t>Joseph Pulitzer</t>
-  </si>
-  <si>
-    <t>56b79b58cd15882c90a3af05</t>
-  </si>
-  <si>
-    <t>Liberty Flagstaff</t>
-  </si>
-  <si>
-    <t>56b2d697cd158828b067f332</t>
-  </si>
-  <si>
-    <t>Marie Sklodowska Curie</t>
-  </si>
-  <si>
-    <t>56b570e2cd15880120dc35c3</t>
-  </si>
-  <si>
-    <t>Nathan Hale</t>
-  </si>
-  <si>
-    <t>56b560bdcd158825d839fb9a</t>
-  </si>
-  <si>
-    <t>Provost Prison</t>
-  </si>
-  <si>
-    <t>644a1410e7abb0665474a28c</t>
-  </si>
-  <si>
-    <t>Subway Tablet (Underground Railway)</t>
-  </si>
-  <si>
-    <t>56b68230cd15882c40f88b13</t>
-  </si>
-  <si>
-    <t>Duane Park Plaques</t>
+    <t>5573dec58a3638298ddf2ed9</t>
+  </si>
+  <si>
+    <t>5573e0a68a3638298ddf2edb</t>
+  </si>
+  <si>
+    <t>56b18f57cd15882914a24fd0</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a3</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a4</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a5</t>
+  </si>
+  <si>
+    <t>56cfc6c662a3debc2b358f2e</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a6</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a7</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a8</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8a9</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8aa</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8ab</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8ac</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8ad</t>
+  </si>
+  <si>
+    <t>56b17f65cd158826600fb8ae</t>
+  </si>
+  <si>
+    <t>56cfc9d962a3debc2b358f33</t>
+  </si>
+  <si>
+    <t>56cfc8f862a3debc2b358f31</t>
+  </si>
+  <si>
+    <t>56b18f57cd15882914a24fd2</t>
+  </si>
+  <si>
+    <t>56b18f57cd15882914a24fd3</t>
+  </si>
+  <si>
+    <t>56cfc76362a3debc2b358f2f</t>
+  </si>
+  <si>
+    <t>56cfce4a62a3debc2b358f3a</t>
+  </si>
+  <si>
+    <t>56cfcd1c62a3debc2b358f38</t>
+  </si>
+  <si>
+    <t>56cfcc0762a3debc2b358f36</t>
+  </si>
+  <si>
+    <t>56cfcb0a62a3debc2b358f35</t>
+  </si>
+  <si>
+    <t>Chinese Art</t>
+  </si>
+  <si>
+    <t>Chinese Law</t>
+  </si>
+  <si>
+    <t>Chinese Philosophy</t>
+  </si>
+  <si>
+    <t>greek architecture</t>
+  </si>
+  <si>
+    <t>greek dramatic art</t>
+  </si>
+  <si>
+    <t>greek epic poetry</t>
+  </si>
+  <si>
+    <t>greek law giver</t>
+  </si>
+  <si>
+    <t>greek lyric poetry</t>
+  </si>
+  <si>
+    <t>greek oratory</t>
+  </si>
+  <si>
+    <t>greek philosophy</t>
+  </si>
+  <si>
+    <t>greek religion</t>
+  </si>
+  <si>
+    <t>greek science</t>
+  </si>
+  <si>
+    <t>Hebrew Apostle</t>
+  </si>
+  <si>
+    <t>Hebrew Law</t>
+  </si>
+  <si>
+    <t>Hebrew Prophet</t>
+  </si>
+  <si>
+    <t>hebrew psalmist</t>
+  </si>
+  <si>
+    <t>Indian Law Giver</t>
+  </si>
+  <si>
+    <t>Indian Literature</t>
+  </si>
+  <si>
+    <t>Indian Religion</t>
+  </si>
+  <si>
+    <t>japanese art</t>
+  </si>
+  <si>
+    <t>Persian Philosophy</t>
+  </si>
+  <si>
+    <t>roman emperor</t>
+  </si>
+  <si>
+    <t>roman lyric poetry</t>
+  </si>
+  <si>
+    <t>roman orator</t>
+  </si>
+  <si>
+    <t>Roman Statesman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +202,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +222,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,16 +242,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -447,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,115 +599,203 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134C7EE-7FA7-4058-AC10-D92EB06BB0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE69475-6113-4080-93C6-61E66D0EA70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="4155" windowWidth="23490" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18675" yWindow="6465" windowWidth="38100" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,28 @@
     <t>Title</t>
   </si>
   <si>
-    <t>55c984c2cfb85dbff5136916</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890ab</t>
-  </si>
-  <si>
-    <t>The Gateway to Soho</t>
-  </si>
-  <si>
-    <t>Bust of Sylvette</t>
-  </si>
-  <si>
-    <t>56b5972dcd15881700bb2b1f</t>
-  </si>
-  <si>
-    <t>Carmine Street Pool Mural</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890b6</t>
-  </si>
-  <si>
-    <t>Fiorello La Guardia</t>
+    <t>Josephine Shaw Lowell</t>
+  </si>
+  <si>
+    <t>56b2c02bcd158817288a84df</t>
+  </si>
+  <si>
+    <t>56b2c02bcd158817288a84e0</t>
+  </si>
+  <si>
+    <t>William Cullen Bryant</t>
+  </si>
+  <si>
+    <t>Gertrude Stein</t>
+  </si>
+  <si>
+    <t>53668a9a5c959622000890ba</t>
+  </si>
+  <si>
+    <t>Lions ("Patience" and "Fortitude")</t>
+  </si>
+  <si>
+    <t>53668a9a5c959622000890c6</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,34 +409,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE69475-6113-4080-93C6-61E66D0EA70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3529172-CA4F-4421-9A74-D2D8B17C3A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18675" yWindow="6465" windowWidth="38100" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20205" yWindow="5235" windowWidth="18450" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -33,35 +33,143 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Josephine Shaw Lowell</t>
-  </si>
-  <si>
-    <t>56b2c02bcd158817288a84df</t>
-  </si>
-  <si>
-    <t>56b2c02bcd158817288a84e0</t>
-  </si>
-  <si>
-    <t>William Cullen Bryant</t>
-  </si>
-  <si>
-    <t>Gertrude Stein</t>
-  </si>
-  <si>
-    <t>53668a9a5c959622000890ba</t>
-  </si>
-  <si>
-    <t>Lions ("Patience" and "Fortitude")</t>
-  </si>
-  <si>
-    <t>53668a9a5c959622000890c6</t>
+    <t>648a4f917c55b27c2c708012</t>
+  </si>
+  <si>
+    <t>428 Lafayette Street Building</t>
+  </si>
+  <si>
+    <t>648cbaeb7c55b27c2c708068</t>
+  </si>
+  <si>
+    <t>430 Lafayette Street Building</t>
+  </si>
+  <si>
+    <t>648cbbef7c55b27c2c70806a</t>
+  </si>
+  <si>
+    <t>432 Lafayette Street Building</t>
+  </si>
+  <si>
+    <t>648cbc737c55b27c2c70806b</t>
+  </si>
+  <si>
+    <t>434 Lafayette Street Building</t>
+  </si>
+  <si>
+    <t>644c7bcf3879cf70e53ff022</t>
+  </si>
+  <si>
+    <t>Astor Library</t>
+  </si>
+  <si>
+    <t>Cooper Union</t>
+  </si>
+  <si>
+    <t>55f71ccdf58614cf075b763d</t>
+  </si>
+  <si>
+    <t>56b2de8dcd158824dc465b87</t>
+  </si>
+  <si>
+    <t>Peter Cooper</t>
+  </si>
+  <si>
+    <t>Alamo</t>
+  </si>
+  <si>
+    <t>53668a995c959622000890a3</t>
+  </si>
+  <si>
+    <t>643c3d364ac6203737fd6e52</t>
+  </si>
+  <si>
+    <t>Self Portrait</t>
+  </si>
+  <si>
+    <t>54fc017b93a2b1e1e52db615</t>
+  </si>
+  <si>
+    <t>54fc034993a2b1e1e52db617</t>
+  </si>
+  <si>
+    <t>5606bdb0f89701aedbaebb76</t>
+  </si>
+  <si>
+    <t>6455087f3879cf70e53ff0cd</t>
+  </si>
+  <si>
+    <t>646af2549e866c1d68eb57a2</t>
+  </si>
+  <si>
+    <t>646c195a9e866c1d68eb57af</t>
+  </si>
+  <si>
+    <t>646c19f79e866c1d68eb57b0</t>
+  </si>
+  <si>
+    <t>646c1a8b9e866c1d68eb57b1</t>
+  </si>
+  <si>
+    <t>646c2b099e866c1d68eb57bb</t>
+  </si>
+  <si>
+    <t>646c31a39e866c1d68eb57c2</t>
+  </si>
+  <si>
+    <t>646dc5dc9e866c1d68eb5825</t>
+  </si>
+  <si>
+    <t>64794c46426b0f007933dd02</t>
+  </si>
+  <si>
+    <t>64794f23426b0f007933dd04</t>
+  </si>
+  <si>
+    <t>Large Coqui</t>
+  </si>
+  <si>
+    <t>Lenin Statue</t>
+  </si>
+  <si>
+    <t>New York City Marble Cemetery</t>
+  </si>
+  <si>
+    <t>First Houses</t>
+  </si>
+  <si>
+    <t>339 Grand Street House</t>
+  </si>
+  <si>
+    <t>Anshe Chesed Synagogue</t>
+  </si>
+  <si>
+    <t>143 Allen Street House</t>
+  </si>
+  <si>
+    <t>Kehila Kadosha Janina Synagogue</t>
+  </si>
+  <si>
+    <t>Norfolk Street Baptist Church</t>
+  </si>
+  <si>
+    <t>Edward Ridley &amp; Sons Department Store Buildings</t>
+  </si>
+  <si>
+    <t>Bond Street Savings Bank</t>
+  </si>
+  <si>
+    <t>Germania Fire Insurance Company Bowery Building</t>
+  </si>
+  <si>
+    <t>Aschenbroedel Verein Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +184,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +202,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,15 +219,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -387,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,34 +532,178 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3529172-CA4F-4421-9A74-D2D8B17C3A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C03B28-0E52-4F25-9DD6-27D6BAE896AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20205" yWindow="5235" windowWidth="18450" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27630" yWindow="4710" windowWidth="24330" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -33,143 +33,65 @@
     <t>Title</t>
   </si>
   <si>
-    <t>648a4f917c55b27c2c708012</t>
-  </si>
-  <si>
-    <t>428 Lafayette Street Building</t>
-  </si>
-  <si>
-    <t>648cbaeb7c55b27c2c708068</t>
-  </si>
-  <si>
-    <t>430 Lafayette Street Building</t>
-  </si>
-  <si>
-    <t>648cbbef7c55b27c2c70806a</t>
-  </si>
-  <si>
-    <t>432 Lafayette Street Building</t>
-  </si>
-  <si>
-    <t>648cbc737c55b27c2c70806b</t>
-  </si>
-  <si>
-    <t>434 Lafayette Street Building</t>
-  </si>
-  <si>
-    <t>644c7bcf3879cf70e53ff022</t>
-  </si>
-  <si>
-    <t>Astor Library</t>
-  </si>
-  <si>
-    <t>Cooper Union</t>
-  </si>
-  <si>
-    <t>55f71ccdf58614cf075b763d</t>
-  </si>
-  <si>
-    <t>56b2de8dcd158824dc465b87</t>
-  </si>
-  <si>
-    <t>Peter Cooper</t>
-  </si>
-  <si>
-    <t>Alamo</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890a3</t>
-  </si>
-  <si>
-    <t>643c3d364ac6203737fd6e52</t>
-  </si>
-  <si>
-    <t>Self Portrait</t>
-  </si>
-  <si>
-    <t>54fc017b93a2b1e1e52db615</t>
-  </si>
-  <si>
-    <t>54fc034993a2b1e1e52db617</t>
-  </si>
-  <si>
-    <t>5606bdb0f89701aedbaebb76</t>
-  </si>
-  <si>
-    <t>6455087f3879cf70e53ff0cd</t>
-  </si>
-  <si>
-    <t>646af2549e866c1d68eb57a2</t>
-  </si>
-  <si>
-    <t>646c195a9e866c1d68eb57af</t>
-  </si>
-  <si>
-    <t>646c19f79e866c1d68eb57b0</t>
-  </si>
-  <si>
-    <t>646c1a8b9e866c1d68eb57b1</t>
-  </si>
-  <si>
-    <t>646c2b099e866c1d68eb57bb</t>
-  </si>
-  <si>
-    <t>646c31a39e866c1d68eb57c2</t>
-  </si>
-  <si>
-    <t>646dc5dc9e866c1d68eb5825</t>
-  </si>
-  <si>
-    <t>64794c46426b0f007933dd02</t>
-  </si>
-  <si>
-    <t>64794f23426b0f007933dd04</t>
-  </si>
-  <si>
-    <t>Large Coqui</t>
-  </si>
-  <si>
-    <t>Lenin Statue</t>
-  </si>
-  <si>
-    <t>New York City Marble Cemetery</t>
-  </si>
-  <si>
-    <t>First Houses</t>
-  </si>
-  <si>
-    <t>339 Grand Street House</t>
-  </si>
-  <si>
-    <t>Anshe Chesed Synagogue</t>
-  </si>
-  <si>
-    <t>143 Allen Street House</t>
-  </si>
-  <si>
-    <t>Kehila Kadosha Janina Synagogue</t>
-  </si>
-  <si>
-    <t>Norfolk Street Baptist Church</t>
-  </si>
-  <si>
-    <t>Edward Ridley &amp; Sons Department Store Buildings</t>
-  </si>
-  <si>
-    <t>Bond Street Savings Bank</t>
-  </si>
-  <si>
-    <t>Germania Fire Insurance Company Bowery Building</t>
-  </si>
-  <si>
-    <t>Aschenbroedel Verein Building</t>
+    <t>560f43b3f89701aedbaebc32</t>
+  </si>
+  <si>
+    <t>Atlantic Avenue Subway Station (IRT and BMT)</t>
+  </si>
+  <si>
+    <t>5608b4aaf89701aedbaebbb3</t>
+  </si>
+  <si>
+    <t>Brooklyn Academy of Music</t>
+  </si>
+  <si>
+    <t>56c95de862a3debc2b358e89</t>
+  </si>
+  <si>
+    <t>Commodore John Barry</t>
+  </si>
+  <si>
+    <t>56d68f8c62a3debc2b358f88</t>
+  </si>
+  <si>
+    <t>Fort Greene Eagles</t>
+  </si>
+  <si>
+    <t>560cb61ef89701aedbaebbe2</t>
+  </si>
+  <si>
+    <t>Fort Greene Historic District</t>
+  </si>
+  <si>
+    <t>55e63324f58614cf075b74de</t>
+  </si>
+  <si>
+    <t>General Edward "Big Ned" Fowler</t>
+  </si>
+  <si>
+    <t>55e630c8f58614cf075b74d6</t>
+  </si>
+  <si>
+    <t>Prison Ship Martyrs Monument</t>
+  </si>
+  <si>
+    <t>6470efbe9e866c1d68eb588d</t>
+  </si>
+  <si>
+    <t>St. Casimir's Roman Catholic Church</t>
+  </si>
+  <si>
+    <t>64497514e7abb0665474a279</t>
+  </si>
+  <si>
+    <t>Williamsburgh Savings Bank Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,15 +106,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,11 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,18 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -510,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +450,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -571,15 +479,15 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -588,10 +496,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,110 +508,6 @@
       </c>
       <c r="B10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Attractions.xlsx
+++ b/data/raw/Attractions.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C03B28-0E52-4F25-9DD6-27D6BAE896AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64672ABA-DCAB-43AA-B3E9-D0E4087AF252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27630" yWindow="4710" windowWidth="24330" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25620" yWindow="4350" windowWidth="32970" windowHeight="16290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -33,65 +44,89 @@
     <t>Title</t>
   </si>
   <si>
-    <t>560f43b3f89701aedbaebc32</t>
-  </si>
-  <si>
-    <t>Atlantic Avenue Subway Station (IRT and BMT)</t>
-  </si>
-  <si>
-    <t>5608b4aaf89701aedbaebbb3</t>
-  </si>
-  <si>
-    <t>Brooklyn Academy of Music</t>
-  </si>
-  <si>
-    <t>56c95de862a3debc2b358e89</t>
-  </si>
-  <si>
-    <t>Commodore John Barry</t>
-  </si>
-  <si>
-    <t>56d68f8c62a3debc2b358f88</t>
-  </si>
-  <si>
-    <t>Fort Greene Eagles</t>
-  </si>
-  <si>
-    <t>560cb61ef89701aedbaebbe2</t>
-  </si>
-  <si>
-    <t>Fort Greene Historic District</t>
-  </si>
-  <si>
-    <t>55e63324f58614cf075b74de</t>
-  </si>
-  <si>
-    <t>General Edward "Big Ned" Fowler</t>
-  </si>
-  <si>
-    <t>55e630c8f58614cf075b74d6</t>
-  </si>
-  <si>
-    <t>Prison Ship Martyrs Monument</t>
-  </si>
-  <si>
-    <t>6470efbe9e866c1d68eb588d</t>
-  </si>
-  <si>
-    <t>St. Casimir's Roman Catholic Church</t>
-  </si>
-  <si>
-    <t>64497514e7abb0665474a279</t>
-  </si>
-  <si>
-    <t>Williamsburgh Savings Bank Building</t>
+    <t>New York Life Insurance Company Building</t>
+  </si>
+  <si>
+    <t>6463e5216117d262815b107c</t>
+  </si>
+  <si>
+    <t>361 Broadway Building</t>
+  </si>
+  <si>
+    <t>64570add4673c82a34f4ece0</t>
+  </si>
+  <si>
+    <t>A. T. Stewart Store</t>
+  </si>
+  <si>
+    <t>6457048d4673c82a34f4ecdd</t>
+  </si>
+  <si>
+    <t>646e2aef9e866c1d68eb5826</t>
+  </si>
+  <si>
+    <t>287 Broadway Building</t>
+  </si>
+  <si>
+    <t>646d015f9e866c1d68eb57df</t>
+  </si>
+  <si>
+    <t>319 Broadway Building</t>
+  </si>
+  <si>
+    <t>6441b3bb94494a7b43e4833c</t>
+  </si>
+  <si>
+    <t>Home Life Insurance Company Building</t>
+  </si>
+  <si>
+    <t>646338a86117d262815b1064</t>
+  </si>
+  <si>
+    <t>Broadway-Chambers Building</t>
+  </si>
+  <si>
+    <t>646e33049e866c1d68eb5831</t>
+  </si>
+  <si>
+    <t>315 Broadway Building</t>
+  </si>
+  <si>
+    <t>646e2d1d9e866c1d68eb5829</t>
+  </si>
+  <si>
+    <t>359 Broadway Building</t>
+  </si>
+  <si>
+    <t>646e2f279e866c1d68eb582b</t>
+  </si>
+  <si>
+    <t>325-333 Broadway Building</t>
+  </si>
+  <si>
+    <t>646e2e5d9e866c1d68eb582a</t>
+  </si>
+  <si>
+    <t>311 Broadway Building</t>
+  </si>
+  <si>
+    <t>6463e0276117d262815b1079</t>
+  </si>
+  <si>
+    <t>Mutual Reserve Fund Life Association Building</t>
+  </si>
+  <si>
+    <t>6463e0b46117d262815b107a</t>
+  </si>
+  <si>
+    <t>Rogers, Peet &amp; Company Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +141,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +161,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,17 +181,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -418,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,42 +523,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -482,7 +566,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -490,24 +574,56 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
